--- a/03_Outputs/all/01_TablasDescriptivas/idx6_crecimiento.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx6_crecimiento.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,243 +502,89 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Valor agregado per cápita</t>
+          <t>Vía primaria por área</t>
         </is>
       </c>
       <c r="B7">
         <v>125</v>
       </c>
       <c r="C7">
-        <v>15459.56821151715</v>
+        <v>0.1006869377218011</v>
       </c>
       <c r="D7">
-        <v>9454.549537071389</v>
+        <v>0.1480911592960064</v>
       </c>
       <c r="E7">
-        <v>6738.222418544106</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>78398.83405402587</v>
+        <v>0.762896966463668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>% VA – act. primarias</t>
+          <t>Vía secundaria por área</t>
         </is>
       </c>
       <c r="B8">
         <v>125</v>
       </c>
       <c r="C8">
-        <v>22.58275599437751</v>
+        <v>0.1259492533836737</v>
       </c>
       <c r="D8">
-        <v>16.33450120986078</v>
+        <v>0.1063057567660816</v>
       </c>
       <c r="E8">
-        <v>0.0143617700145496</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>90.89551671310223</v>
+        <v>0.495503088796899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vías primarias x1k hab. (km)</t>
+          <t>Vía terciaria por área</t>
         </is>
       </c>
       <c r="B9">
         <v>125</v>
       </c>
       <c r="C9">
-        <v>1.17939401410495</v>
+        <v>0.3742724968236643</v>
       </c>
       <c r="D9">
-        <v>1.788996822629904</v>
+        <v>0.2854953914289738</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.50038920653315</v>
+        <v>1.77279155749977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vías secundarias x1k hab. (km)</t>
+          <t>Vía total por área</t>
         </is>
       </c>
       <c r="B10">
         <v>125</v>
       </c>
       <c r="C10">
-        <v>2.482280292618042</v>
+        <v>0.6009086879291389</v>
       </c>
       <c r="D10">
-        <v>2.295338175475567</v>
+        <v>0.3703612461101471</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0227467970516183</v>
       </c>
       <c r="F10">
-        <v>10.9751732624012</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Vías terciarias x1k hab. (km)</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>125</v>
-      </c>
-      <c r="C11">
-        <v>7.063767398709254</v>
-      </c>
-      <c r="D11">
-        <v>4.702123176543863</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>21.6523340690118</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Vías totales x1k hab. (km)</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>125</v>
-      </c>
-      <c r="C12">
-        <v>10.72544170543225</v>
-      </c>
-      <c r="D12">
-        <v>6.569591090233138</v>
-      </c>
-      <c r="E12">
-        <v>0.0443063940335775</v>
-      </c>
-      <c r="F12">
-        <v>32.1467869401216</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Vía primaria por área</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>125</v>
-      </c>
-      <c r="C13">
-        <v>0.1006869377218011</v>
-      </c>
-      <c r="D13">
-        <v>0.1480911592960064</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.762896966463668</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Vía secundaria por área</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>125</v>
-      </c>
-      <c r="C14">
-        <v>0.1259492533836737</v>
-      </c>
-      <c r="D14">
-        <v>0.1063057567660816</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.495503088796899</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Vía terciaria por área</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>125</v>
-      </c>
-      <c r="C15">
-        <v>0.3742724968236643</v>
-      </c>
-      <c r="D15">
-        <v>0.2854953914289738</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1.77279155749977</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Vía total por área</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>125</v>
-      </c>
-      <c r="C16">
-        <v>0.6009086879291389</v>
-      </c>
-      <c r="D16">
-        <v>0.3703612461101471</v>
-      </c>
-      <c r="E16">
-        <v>0.0227467970516183</v>
-      </c>
-      <c r="F16">
         <v>2.11980957278741</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>% cobert. anticoncepción (M)</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <v>28.2424</v>
-      </c>
-      <c r="D17">
-        <v>9.74503640404329</v>
-      </c>
-      <c r="E17">
-        <v>6.66</v>
-      </c>
-      <c r="F17">
-        <v>48.89</v>
       </c>
     </row>
   </sheetData>
